--- a/Data Test/signup_web.xlsx
+++ b/Data Test/signup_web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C9DC51-EE60-4D99-8080-D613FABF862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C22F0BA-E050-4F76-9708-5C7934558DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,19 +119,23 @@
     <t>error_message</t>
   </si>
   <si>
-    <t>Register Failed</t>
-  </si>
-  <si>
     <t>Email format doesn't match</t>
   </si>
   <si>
     <t>Min 8 Max 15 Characters | no spaces | contain at least one of these : Uppercase , Number &amp; Symbol</t>
   </si>
   <si>
-    <t>Register Success</t>
-  </si>
-  <si>
-    <t>sal3@gmail.com</t>
+    <t>Register Failed
+Account already exist , please try using another account
+OK</t>
+  </si>
+  <si>
+    <t>sal5@gmail.com</t>
+  </si>
+  <si>
+    <t>Register Success
+Please login using your new account
+Login</t>
   </si>
 </sst>
 </file>
@@ -205,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -213,6 +217,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -533,7 +540,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -614,7 +621,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -634,7 +641,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -654,7 +661,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -674,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -694,10 +701,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -713,11 +720,11 @@
       <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -728,13 +735,13 @@
         <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
+      <c r="F10" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data Test/signup_web.xlsx
+++ b/Data Test/signup_web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C22F0BA-E050-4F76-9708-5C7934558DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE8E6BE-4318-4EE8-8F83-D0DD84D5032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>email</t>
   </si>
@@ -44,9 +44,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>arch-gmail</t>
-  </si>
-  <si>
     <t>Archen123!</t>
   </si>
   <si>
@@ -68,18 +65,9 @@
     <t>TC005</t>
   </si>
   <si>
-    <t>iniarch@gmail.com</t>
-  </si>
-  <si>
     <t>archen123!</t>
   </si>
   <si>
-    <t>archen123</t>
-  </si>
-  <si>
-    <t>archens!</t>
-  </si>
-  <si>
     <t>TC006</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>TC008</t>
   </si>
   <si>
-    <t>archen@gmail.com</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
@@ -99,12 +84,6 @@
   </si>
   <si>
     <t>fullname</t>
-  </si>
-  <si>
-    <t>Archie</t>
-  </si>
-  <si>
-    <t>Salsa123!</t>
   </si>
   <si>
     <t>Archenarchen123*</t>
@@ -130,12 +109,36 @@
 OK</t>
   </si>
   <si>
-    <t>sal5@gmail.com</t>
-  </si>
-  <si>
     <t>Register Success
 Please login using your new account
 Login</t>
+  </si>
+  <si>
+    <t>joong@gmail.com</t>
+  </si>
+  <si>
+    <t>phone-number</t>
+  </si>
+  <si>
+    <t>archen-gmail</t>
+  </si>
+  <si>
+    <t>081234567890</t>
+  </si>
+  <si>
+    <t>joongarchen@gmail.com</t>
+  </si>
+  <si>
+    <t>archen17@gmail.com</t>
+  </si>
+  <si>
+    <t>Archen Aydin</t>
+  </si>
+  <si>
+    <t>Archen123</t>
+  </si>
+  <si>
+    <t>Archens!</t>
   </si>
 </sst>
 </file>
@@ -209,18 +212,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -537,225 +559,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1998F4-7F8C-44F3-A3CA-78F77B1A9AB7}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="60.5703125" customWidth="1"/>
-    <col min="7" max="7" width="47.85546875" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="60.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" xr:uid="{DB699769-90B2-4092-BF89-77910214CBA5}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{915551B6-7C38-469F-94D9-49BA5E2E6F26}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{A537A1BF-7131-4C82-8240-3E8F745FA5F4}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{C11B49A6-5A85-41B4-AF17-7F67131B3A30}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{9285753E-F990-46CE-8358-EDA597DA9B53}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{B5B24035-9465-447C-AC61-E03C75CF8E0B}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{0AF60757-BC7F-4407-A7FF-F748AD3C749C}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{C11B49A6-5A85-41B4-AF17-7F67131B3A30}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{B5B24035-9465-447C-AC61-E03C75CF8E0B}"/>
+    <hyperlink ref="D5:D8" r:id="rId4" display="joongarchen@gmail.com" xr:uid="{A05A35AE-EA89-4376-B5F5-BA5F88D09210}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Data Test/signup_web.xlsx
+++ b/Data Test/signup_web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE8E6BE-4318-4EE8-8F83-D0DD84D5032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9403414-2515-4A40-AB47-DC0476E46314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="2100" yWindow="1860" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>joongarchen@gmail.com</t>
   </si>
   <si>
-    <t>archen17@gmail.com</t>
-  </si>
-  <si>
     <t>Archen Aydin</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Archens!</t>
+  </si>
+  <si>
+    <t>archen22@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1998F4-7F8C-44F3-A3CA-78F77B1A9AB7}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>27</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>29</v>
@@ -666,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>29</v>
@@ -689,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>29</v>
@@ -712,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>29</v>
@@ -721,7 +721,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>22</v>
@@ -735,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>29</v>
@@ -744,7 +744,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>22</v>
@@ -758,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>25</v>
@@ -781,10 +781,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>28</v>
